--- a/biology/Zoologie/Amazone_guatémaltèque/Amazone_guatémaltèque.xlsx
+++ b/biology/Zoologie/Amazone_guatémaltèque/Amazone_guatémaltèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_guat%C3%A9malt%C3%A8que</t>
+          <t>Amazone_guatémaltèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona guatemalae
 L'Amazone guatémaltèque (Amazona guatemalae) est une espèce d'oiseaux de la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_guat%C3%A9malt%C3%A8que</t>
+          <t>Amazone_guatémaltèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit en Amérique centrale, du Sud-Est du Mexique jusqu'à l'Ouest du Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Amérique centrale, du Sud-Est du Mexique jusqu'à l'Ouest du Panama.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_guat%C3%A9malt%C3%A8que</t>
+          <t>Amazone_guatémaltèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Précédemment traitée comme une sous-espèce de l'Amazone poudrée (A. farinosa), elle en est séparée à la suite de l'étude phylogénétique de Wenner et al. (2012) suivie par le Congrès ornithologique international (dans sa classification version 5.2, 2015) et Handbook of the Birds of the World.
-Selon le Congrès ornithologique international[1] et Alan P. Peterson[2] il existe deux sous-espèces :
+Selon le Congrès ornithologique international et Alan P. Peterson il existe deux sous-espèces :
 Amazona guatemalae guatemalae (P.L. Sclater, 1860) ;
 Amazona guatemalae virenticeps (Salvadori, 1891).</t>
         </is>
